--- a/Ch3_SupplementaryTables.xlsx
+++ b/Ch3_SupplementaryTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpeers/Documents/Chapter 2 - ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFF6EDC-BCA5-E144-8D17-BE437D4F8B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8563E4-90EE-3746-B591-D376F70DDF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="120" windowWidth="28800" windowHeight="16040" xr2:uid="{97A8B1D5-475B-6F45-BA81-A1E42DC5C45D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{97A8B1D5-475B-6F45-BA81-A1E42DC5C45D}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="12" r:id="rId1"/>
@@ -5046,9 +5046,6 @@
     <t>GCA_028533385.1</t>
   </si>
   <si>
-    <t>Oanthera leo</t>
-  </si>
-  <si>
     <t>Lion</t>
   </si>
   <si>
@@ -5968,6 +5965,9 @@
   </si>
   <si>
     <t xml:space="preserve">Transcription factor (TF) motifs learned by ExplaiNN for each species-specific model (Models 2, 3, 4). The importance for each filter for predicting positives (ATAC-seq peaks) and negatives (non-ATAC-seq peaks) is shown alongisde the corresponding JASPAR motif and the significance of the JASPAR motif predictions.											</t>
+  </si>
+  <si>
+    <t>Panthera leo</t>
   </si>
 </sst>
 </file>
@@ -6455,7 +6455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7847FCA-A4D6-3145-B0D6-CD1C88148D4D}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -6467,72 +6467,72 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1932</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1933</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>1934</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D5" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D6" t="s">
         <v>1941</v>
       </c>
-      <c r="C6" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1942</v>
-      </c>
       <c r="E6" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
   </sheetData>
@@ -6570,17 +6570,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -71444,17 +71444,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -71479,28 +71479,28 @@
         <v>1650</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>1959</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1960</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -71515,7 +71515,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -71527,10 +71527,10 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I6" t="s">
         <v>1947</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -71544,7 +71544,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -71556,10 +71556,10 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I7" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -71573,7 +71573,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -71585,10 +71585,10 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I8" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -71602,7 +71602,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -71614,10 +71614,10 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I9" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -71631,7 +71631,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -71643,10 +71643,10 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -71660,7 +71660,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -71672,10 +71672,10 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I11" t="s">
         <v>1947</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -71689,7 +71689,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -71701,10 +71701,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I12" t="s">
         <v>1947</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -71718,22 +71718,22 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E13" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F13" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I13" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -71747,7 +71747,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -71759,10 +71759,10 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I14" t="s">
         <v>1947</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -71776,7 +71776,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -71788,10 +71788,10 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="I15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
   </sheetData>
@@ -71806,8 +71806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F318EF9-C0B6-F246-B056-8F228949E5D7}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71821,17 +71821,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -71941,206 +71941,206 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B9" t="s">
         <v>1667</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1668</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1669</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1670</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B10" t="s">
         <v>1672</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1673</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1674</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1675</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B11" t="s">
         <v>1677</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1678</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1679</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1680</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B12" t="s">
         <v>1682</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1683</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1684</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1685</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B13" t="s">
         <v>1687</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1688</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1689</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1690</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B14" t="s">
         <v>1692</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1693</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1694</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1695</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B15" t="s">
         <v>1697</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1698</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="7" t="s">
         <v>1699</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" t="s">
         <v>1700</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B16" t="s">
         <v>1702</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1703</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>1704</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>1705</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B17" t="s">
         <v>1707</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1708</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>1709</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>1710</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B18" t="s">
         <v>1712</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1713</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1714</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1715</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B19" t="s">
         <v>1717</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>1718</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>1719</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1720</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B20" t="s">
         <v>1722</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>1723</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1724</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1725</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -72179,7 +72179,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -72213,17 +72213,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -72268,37 +72268,37 @@
         <v>1650</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1796</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -72306,7 +72306,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C6">
         <v>1.8473649620000001</v>
@@ -72315,19 +72315,19 @@
         <v>-1.8490025999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J6" s="10">
         <v>1.4899999999999999E-8</v>
@@ -72344,7 +72344,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C7">
         <v>0.81924855709075906</v>
@@ -72353,19 +72353,19 @@
         <v>-0.82056900858879001</v>
       </c>
       <c r="E7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G7" t="s">
         <v>1806</v>
       </c>
-      <c r="G7" t="s">
-        <v>1807</v>
-      </c>
       <c r="H7" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I7" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J7" s="9">
         <v>8.4940300000000004E-5</v>
@@ -72382,7 +72382,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C8" s="4">
         <v>1.1662009360000001</v>
@@ -72391,19 +72391,19 @@
         <v>-1.165191114</v>
       </c>
       <c r="E8" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F8" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H8" t="s">
         <v>1810</v>
       </c>
-      <c r="G8" t="s">
-        <v>1809</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>1811</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1812</v>
       </c>
       <c r="J8" s="9">
         <v>1.41839E-5</v>
@@ -72420,7 +72420,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C9" s="4">
         <v>6.4201354979999996</v>
@@ -72429,19 +72429,19 @@
         <v>-6.4212379459999998</v>
       </c>
       <c r="E9" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F9" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G9" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I9" t="s">
         <v>1811</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1812</v>
       </c>
       <c r="J9" s="9">
         <v>1.14385E-13</v>
@@ -72458,7 +72458,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C10">
         <v>2.8382556438446001</v>
@@ -72467,19 +72467,19 @@
         <v>-2.83929347991943</v>
       </c>
       <c r="E10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G10" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H10" t="s">
         <v>1823</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>1824</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1825</v>
       </c>
       <c r="J10" s="9">
         <v>1.4804099999999999E-6</v>
@@ -72496,7 +72496,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C11">
         <v>0.79729112982749895</v>
@@ -72505,19 +72505,19 @@
         <v>-0.79806330800056402</v>
       </c>
       <c r="E11" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H11" t="s">
         <v>1826</v>
       </c>
-      <c r="H11" t="s">
-        <v>1827</v>
-      </c>
       <c r="I11" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J11" s="9">
         <v>1.2017900000000001E-5</v>
@@ -72534,7 +72534,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C12">
         <v>6.67223691940307</v>
@@ -72543,19 +72543,19 @@
         <v>-6.6734199523925701</v>
       </c>
       <c r="E12" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G12" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I12" t="s">
         <v>1811</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1812</v>
       </c>
       <c r="J12" s="9">
         <v>9.3378599999999991E-13</v>
@@ -72572,7 +72572,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C13">
         <v>1.6833522319793699</v>
@@ -72581,19 +72581,19 @@
         <v>-1.6848570108413601</v>
       </c>
       <c r="E13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G13" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H13" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I13" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J13" s="9">
         <v>3.6533600000000001E-7</v>
@@ -72610,7 +72610,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C14">
         <v>-0.66252365708351102</v>
@@ -72619,19 +72619,19 @@
         <v>0.66112270951271002</v>
       </c>
       <c r="E14" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G14" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H14" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I14" t="s">
         <v>1811</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1812</v>
       </c>
       <c r="J14" s="9">
         <v>9.6864E-8</v>
@@ -72648,7 +72648,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C15">
         <v>1.5628690719604399</v>
@@ -72657,19 +72657,19 @@
         <v>-1.5653672814369199</v>
       </c>
       <c r="E15" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G15" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H15" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I15" t="s">
         <v>1811</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1812</v>
       </c>
       <c r="J15" s="9">
         <v>1.01892E-6</v>
@@ -72686,7 +72686,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C16">
         <v>2.43360376358032</v>
@@ -72695,19 +72695,19 @@
         <v>-2.4352257251739502</v>
       </c>
       <c r="E16" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G16" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I16" t="s">
         <v>1829</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1831</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1830</v>
       </c>
       <c r="J16" s="9">
         <v>4.1286E-9</v>
@@ -72724,7 +72724,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C17">
         <v>-0.40039357542991599</v>
@@ -72733,19 +72733,19 @@
         <v>0.40008902549743602</v>
       </c>
       <c r="E17" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H17" t="s">
         <v>1832</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>1833</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1834</v>
       </c>
       <c r="J17" s="9">
         <v>1.08795E-5</v>
@@ -72762,7 +72762,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C18">
         <v>0.85569447278976396</v>
@@ -72771,19 +72771,19 @@
         <v>-0.85650867223739602</v>
       </c>
       <c r="E18" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G18" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H18" t="s">
         <v>1835</v>
       </c>
-      <c r="H18" t="s">
-        <v>1836</v>
-      </c>
       <c r="I18" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J18" s="9">
         <v>1.9885E-5</v>
@@ -72800,7 +72800,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C19" s="4">
         <v>2.4117980000000001</v>
@@ -72809,19 +72809,19 @@
         <v>-2.4130494589999998</v>
       </c>
       <c r="E19" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G19" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H19" t="s">
         <v>1837</v>
       </c>
-      <c r="H19" t="s">
-        <v>1838</v>
-      </c>
       <c r="I19" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J19" s="9">
         <v>2.4019499999999999E-8</v>
@@ -72838,7 +72838,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -72847,19 +72847,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G20" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H20" t="s">
         <v>1840</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>1841</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1842</v>
       </c>
       <c r="J20" s="9">
         <v>1.4008100000000001E-6</v>
@@ -72876,7 +72876,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C21" s="11">
         <v>2.80949759483337</v>
@@ -72885,19 +72885,19 @@
         <v>-2.8111209869384699</v>
       </c>
       <c r="E21" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F21" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G21" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H21" t="s">
         <v>1884</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>1885</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1886</v>
       </c>
       <c r="J21" s="9">
         <v>3.1277000000000003E-8</v>
@@ -72914,7 +72914,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C22" s="11">
         <v>0.87742456793785095</v>
@@ -72923,19 +72923,19 @@
         <v>-0.87901294231414795</v>
       </c>
       <c r="E22" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F22" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G22" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H22" t="s">
         <v>1823</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>1824</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1825</v>
       </c>
       <c r="J22" s="9">
         <v>2.3382000000000001E-5</v>
@@ -72952,7 +72952,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C23" s="11">
         <v>1.38035953044891</v>
@@ -72961,19 +72961,19 @@
         <v>-1.38352966308593</v>
       </c>
       <c r="E23" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="F23" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G23" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I23" t="s">
         <v>1887</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1889</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1888</v>
       </c>
       <c r="J23" s="9">
         <v>1.48256E-6</v>
@@ -72990,7 +72990,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C24" s="11">
         <v>2.3578708171844398</v>
@@ -72999,19 +72999,19 @@
         <v>-2.3594822883605899</v>
       </c>
       <c r="E24" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F24" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G24" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I24" t="s">
         <v>1890</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1891</v>
       </c>
       <c r="J24" s="9">
         <v>4.6987299999999999E-7</v>
@@ -73028,7 +73028,7 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C25" s="11">
         <v>1.1903836727142301</v>
@@ -73037,19 +73037,19 @@
         <v>-1.1924806833267201</v>
       </c>
       <c r="E25" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F25" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G25" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H25" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I25" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J25" s="9">
         <v>1.9927100000000001E-5</v>
@@ -73066,7 +73066,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C26" s="11">
         <v>2.6262466907501198</v>
@@ -73075,19 +73075,19 @@
         <v>-2.6286691427230799</v>
       </c>
       <c r="E26" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F26" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G26" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H26" t="s">
         <v>1837</v>
       </c>
-      <c r="H26" t="s">
-        <v>1838</v>
-      </c>
       <c r="I26" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J26" s="9">
         <v>2.6389499999999999E-8</v>
@@ -73104,7 +73104,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C27" s="11">
         <v>2.93932652473449</v>
@@ -73113,19 +73113,19 @@
         <v>-2.94151711463928</v>
       </c>
       <c r="E27" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F27" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G27" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H27" t="s">
         <v>1894</v>
       </c>
-      <c r="H27" t="s">
-        <v>1895</v>
-      </c>
       <c r="I27" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J27" s="9">
         <v>1.87315E-6</v>
@@ -73142,7 +73142,7 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C28" s="11">
         <v>1.5699167251586901</v>
@@ -73151,19 +73151,19 @@
         <v>-1.57252049446105</v>
       </c>
       <c r="E28" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F28" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G28" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H28" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I28" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J28" s="9">
         <v>9.7123099999999994E-8</v>
@@ -73180,7 +73180,7 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C29" s="11">
         <v>3.4307618141174299</v>
@@ -73189,19 +73189,19 @@
         <v>-3.4334657192230198</v>
       </c>
       <c r="E29" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F29" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G29" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I29" t="s">
         <v>1897</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1898</v>
       </c>
       <c r="J29" s="9">
         <v>2.29719E-8</v>
@@ -73218,7 +73218,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C30" s="11">
         <v>0.63101574778556802</v>
@@ -73227,19 +73227,19 @@
         <v>-0.63321658968925398</v>
       </c>
       <c r="E30" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F30" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G30" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1901</v>
+      </c>
+      <c r="I30" t="s">
         <v>1900</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1902</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1901</v>
       </c>
       <c r="J30" s="9">
         <v>2.3064199999999998E-5</v>
@@ -73256,7 +73256,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C31" s="11">
         <v>2.38600349426269</v>
@@ -73265,19 +73265,19 @@
         <v>-2.3903810977935702</v>
       </c>
       <c r="E31" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F31" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G31" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H31" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I31" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J31" s="9">
         <v>1.4324600000000001E-8</v>
@@ -73294,7 +73294,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C32" s="11">
         <v>0</v>
@@ -73303,19 +73303,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="F32" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G32" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H32" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I32" t="s">
         <v>1811</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1812</v>
       </c>
       <c r="J32" s="9">
         <v>2.5617800000000001E-5</v>
@@ -73332,7 +73332,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C33" s="11">
         <v>1.1392506361007599</v>
@@ -73341,19 +73341,19 @@
         <v>-1.14018070697784</v>
       </c>
       <c r="E33" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="F33" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G33" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H33" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I33" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J33" s="9">
         <v>3.2587900000000002E-6</v>
@@ -73370,7 +73370,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C34" s="11">
         <v>0.65541374683380105</v>
@@ -73379,19 +73379,19 @@
         <v>-0.65709343552589405</v>
       </c>
       <c r="E34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F34" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G34" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H34" t="s">
         <v>1906</v>
       </c>
-      <c r="H34" t="s">
-        <v>1907</v>
-      </c>
       <c r="I34" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J34" s="9">
         <v>1.3830200000000001E-6</v>
@@ -73408,7 +73408,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C35" s="11">
         <v>0.35447816550731598</v>
@@ -73417,19 +73417,19 @@
         <v>-0.35542602837085702</v>
       </c>
       <c r="E35" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F35" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G35" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H35" t="s">
         <v>1908</v>
       </c>
-      <c r="H35" t="s">
-        <v>1909</v>
-      </c>
       <c r="I35" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="J35" s="9">
         <v>5.05476E-6</v>
@@ -73446,7 +73446,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C36" s="11">
         <v>5.9626762866973797</v>
@@ -73455,19 +73455,19 @@
         <v>-5.9651930332183802</v>
       </c>
       <c r="E36" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F36" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G36" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H36" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I36" t="s">
         <v>1811</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1812</v>
       </c>
       <c r="J36" s="9">
         <v>3.0685500000000001E-13</v>
@@ -73484,7 +73484,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C37" s="11">
         <v>6.3096141815185502</v>
@@ -73493,19 +73493,19 @@
         <v>-6.3123240470886204</v>
       </c>
       <c r="E37" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F37" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G37" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H37" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I37" t="s">
         <v>1811</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1812</v>
       </c>
       <c r="J37" s="9">
         <v>1.06839E-14</v>
@@ -73522,7 +73522,7 @@
         <v>908</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C38" s="11">
         <v>-0.79890748858451799</v>
@@ -73531,19 +73531,19 @@
         <v>0.79842644929885798</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G38" s="11" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I38" t="s">
         <v>1910</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>1912</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1911</v>
       </c>
       <c r="J38" s="12">
         <v>1.3008999999999999E-8</v>
@@ -73560,7 +73560,7 @@
         <v>908</v>
       </c>
       <c r="B39" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C39" s="11">
         <v>2.4238138198852499</v>
@@ -73569,19 +73569,19 @@
         <v>-2.4252116680145201</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G39" s="11" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>1913</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>1914</v>
-      </c>
       <c r="I39" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J39" s="12">
         <v>1.3008999999999999E-8</v>
@@ -73598,7 +73598,7 @@
         <v>908</v>
       </c>
       <c r="B40" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C40" s="11">
         <v>1.08578145503997</v>
@@ -73607,19 +73607,19 @@
         <v>-1.08624243736267</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J40" s="12">
         <v>1.1480399999999999E-8</v>
@@ -73636,7 +73636,7 @@
         <v>908</v>
       </c>
       <c r="B41" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C41" s="11">
         <v>0</v>
@@ -73645,19 +73645,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F41" s="11" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>1806</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>1807</v>
-      </c>
       <c r="H41" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I41" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J41" s="12">
         <v>3.6819700000000003E-5</v>
@@ -73674,7 +73674,7 @@
         <v>908</v>
       </c>
       <c r="B42" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C42" s="11">
         <v>1.53672635555267</v>
@@ -73683,19 +73683,19 @@
         <v>-1.53799176216125</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G42" s="11" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H42" t="s">
         <v>1835</v>
       </c>
-      <c r="H42" t="s">
-        <v>1836</v>
-      </c>
       <c r="I42" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J42" s="12">
         <v>3.0752799999999999E-6</v>
@@ -73712,7 +73712,7 @@
         <v>908</v>
       </c>
       <c r="B43" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C43" s="11">
         <v>2.8901345729827801</v>
@@ -73721,19 +73721,19 @@
         <v>-2.8928992748260498</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G43" s="11" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H43" t="s">
         <v>1894</v>
       </c>
-      <c r="H43" t="s">
-        <v>1895</v>
-      </c>
       <c r="I43" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="J43" s="12">
         <v>2.3964699999999999E-6</v>
@@ -73750,7 +73750,7 @@
         <v>908</v>
       </c>
       <c r="B44" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C44" s="11">
         <v>1.37780213356018</v>
@@ -73759,19 +73759,19 @@
         <v>-1.3776608705520601</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J44" s="12">
         <v>4.0807999999999999E-7</v>
@@ -73788,7 +73788,7 @@
         <v>908</v>
       </c>
       <c r="B45" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C45" s="11">
         <v>0.79315176606178195</v>
@@ -73797,19 +73797,19 @@
         <v>-0.79378518462181002</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J45" s="12">
         <v>3.62409E-7</v>
@@ -73826,7 +73826,7 @@
         <v>908</v>
       </c>
       <c r="B46" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C46" s="11">
         <v>2.4511957168579102</v>
@@ -73835,19 +73835,19 @@
         <v>-2.4532889127731301</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H46" s="11" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>1885</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>1886</v>
       </c>
       <c r="J46" s="12">
         <v>8.1300200000000004E-7</v>
@@ -73864,7 +73864,7 @@
         <v>908</v>
       </c>
       <c r="B47" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C47" s="11">
         <v>5.1660943031311</v>
@@ -73873,19 +73873,19 @@
         <v>-5.1670475006103498</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H47" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>1811</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>1812</v>
       </c>
       <c r="J47" s="12">
         <v>1.57297E-9</v>
@@ -73902,7 +73902,7 @@
         <v>908</v>
       </c>
       <c r="B48" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C48" s="11">
         <v>2.2239286899566602</v>
@@ -73911,19 +73911,19 @@
         <v>-2.22504234313964</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G48" s="11" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>1918</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>1920</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>1919</v>
       </c>
       <c r="J48" s="12">
         <v>2.0742099999999998E-6</v>
@@ -73940,7 +73940,7 @@
         <v>908</v>
       </c>
       <c r="B49" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C49" s="11">
         <v>0</v>
@@ -73949,19 +73949,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G49" s="11" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>1921</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>1922</v>
-      </c>
       <c r="I49" s="11" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J49" s="12">
         <v>2.20155E-5</v>
@@ -73978,7 +73978,7 @@
         <v>908</v>
       </c>
       <c r="B50" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C50" s="11">
         <v>3.1711320877075102</v>
@@ -73987,19 +73987,19 @@
         <v>-3.1719508171081499</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H50" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I50" s="11" t="s">
         <v>1824</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>1825</v>
       </c>
       <c r="J50" s="12">
         <v>1.6939499999999999E-7</v>
@@ -74016,7 +74016,7 @@
         <v>908</v>
       </c>
       <c r="B51" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C51" s="11">
         <v>1.3983571529388401</v>
@@ -74025,19 +74025,19 @@
         <v>-1.3998714685439999</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="J51" s="9">
         <v>9.9288200000000003E-6</v>
@@ -74054,7 +74054,7 @@
         <v>908</v>
       </c>
       <c r="B52" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C52" s="11">
         <v>2.06683897972106</v>
@@ -74063,19 +74063,19 @@
         <v>-2.0687177181243799</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G52" s="11" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H52" t="s">
         <v>1835</v>
       </c>
-      <c r="H52" t="s">
-        <v>1836</v>
-      </c>
       <c r="I52" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J52" s="12">
         <v>1.9133399999999998E-6</v>
@@ -74092,7 +74092,7 @@
         <v>908</v>
       </c>
       <c r="B53" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C53" s="11">
         <v>5.38773441314697</v>
@@ -74101,19 +74101,19 @@
         <v>-5.3889188766479403</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>1811</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>1812</v>
       </c>
       <c r="J53" s="12">
         <v>1.3043799999999999E-12</v>
@@ -74130,7 +74130,7 @@
         <v>908</v>
       </c>
       <c r="B54" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C54" s="11">
         <v>1.90398514270782</v>
@@ -74139,19 +74139,19 @@
         <v>-1.90477335453033</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G54" s="11" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I54" t="s">
         <v>1925</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>1927</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1926</v>
       </c>
       <c r="J54" s="12">
         <v>3.5470300000000002E-8</v>
@@ -74168,7 +74168,7 @@
         <v>908</v>
       </c>
       <c r="B55" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C55" s="11">
         <v>0</v>
@@ -74177,19 +74177,19 @@
         <v>0</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="H55" s="11" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I55" t="s">
         <v>1811</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1812</v>
       </c>
       <c r="J55" s="12">
         <v>1.4862799999999999E-5</v>
@@ -74206,7 +74206,7 @@
         <v>908</v>
       </c>
       <c r="B56" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C56" s="11">
         <v>4.7189064025878897</v>
@@ -74215,19 +74215,19 @@
         <v>-4.7216057777404696</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I56" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="J56" s="12">
         <v>2.1424099999999999E-8</v>
